--- a/xlsx/ISO 3166_intext.xlsx
+++ b/xlsx/ISO 3166_intext.xlsx
@@ -26,22 +26,22 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%8C%96%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際標準化組織</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_ISO 3166</t>
+    <t>国际标准化组织</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_ISO 3166</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96</t>
   </si>
   <si>
-    <t>國際標準</t>
+    <t>国际标准</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>國家</t>
+    <t>国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_3166-1</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3</t>
   </si>
   <si>
-    <t>貨幣</t>
+    <t>货币</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:ISO</t>
@@ -533,7 +533,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E6%9C%9F%E5%88%8A%E8%99%9F</t>
   </si>
   <si>
-    <t>國際標準期刊號</t>
+    <t>国际标准期刊号</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/ISO_3307</t>
@@ -617,7 +617,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%AD%89%E5%88%B8%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際證券識別碼</t>
+    <t>国际证券识别码</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/ISO_6344</t>
@@ -683,7 +683,7 @@
     <t>https://zh.wikipedia.org/wiki/Pascal_(%E7%A8%8B%E5%BC%8F%E8%AA%9E%E8%A8%80)</t>
   </si>
   <si>
-    <t>Pascal (程式語言)</t>
+    <t>Pascal (程式语言)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/ISO_7200</t>
@@ -923,7 +923,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9E%8B%E7%A2%BC</t>
   </si>
   <si>
-    <t>鞋碼</t>
+    <t>鞋码</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Manufacturing_Message_Specification</t>
@@ -1103,7 +1103,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E%E8%B3%87%E8%A8%8A%E4%BA%A4%E6%8F%9B%E6%A8%99%E6%BA%96%E4%BB%A3%E7%A2%BC</t>
   </si>
   <si>
-    <t>亞美尼亞資訊交換標準代碼</t>
+    <t>亚美尼亚资讯交换标准代码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%97%B4%E7%B3%BB%E7%BB%9F%E5%88%B0%E4%B8%AD%E9%97%B4%E7%B3%BB%E7%BB%9F</t>
@@ -1121,7 +1121,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E8%8A%B1%E8%9E%BA%E7%B5%B2</t>
   </si>
   <si>
-    <t>梅花螺絲</t>
+    <t>梅花螺丝</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/RM-ODP</t>
@@ -1205,7 +1205,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A7%E5%88%B6%E5%99%A8%E5%8D%80%E5%9F%9F%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>控制器區域網路</t>
+    <t>控制器区域网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_11940</t>
@@ -1355,7 +1355,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%8A%9B</t>
   </si>
   <si>
-    <t>馬力</t>
+    <t>马力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO/IEC_14443</t>
@@ -1433,7 +1433,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E9%AB%94%E7%B6%AD%E8%AD%B7</t>
   </si>
   <si>
-    <t>軟體維護</t>
+    <t>软体维护</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/C%2B%2B</t>
@@ -1673,7 +1673,7 @@
     <t>https://zh.wikipedia.org/wiki/QR%E7%A2%BC</t>
   </si>
   <si>
-    <t>QR碼</t>
+    <t>QR码</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/ISO/IEC_18014</t>
@@ -1919,7 +1919,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A9%9E%E5%BD%99%E6%A8%99%E7%A4%BA%E6%A1%86%E6%9E%B6</t>
   </si>
   <si>
-    <t>詞彙標示框架</t>
+    <t>词汇标示框架</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/ISO-TimeML</t>
@@ -1997,7 +1997,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/ISO/PAS_28000</t>

--- a/xlsx/ISO 3166_intext.xlsx
+++ b/xlsx/ISO 3166_intext.xlsx
@@ -29,7 +29,7 @@
     <t>國際標準化組織</t>
   </si>
   <si>
-    <t>政策_政策_美國_ISO 3166</t>
+    <t>体育运动_体育运动_伊朗_ISO 3166</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96</t>
@@ -2960,7 +2960,7 @@
         <v>34</v>
       </c>
       <c r="G18" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H18" t="s">
         <v>4</v>
@@ -2989,7 +2989,7 @@
         <v>36</v>
       </c>
       <c r="G19" t="n">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H19" t="s">
         <v>4</v>
